--- a/models/ctmc/kanban/properties.xlsx
+++ b/models/ctmc/kanban/properties.xlsx
@@ -601,7 +601,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
